--- a/src/temp/temp.xlsx
+++ b/src/temp/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivsharma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F7BBF-9957-4A28-AC77-40C017EC7259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190F3C3D-5259-4301-9764-31D784A59845}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{841ACD11-FF34-4FAB-AEC7-7C58DA083F7A}"/>
   </bookViews>
@@ -33,22 +33,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>javascript</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>angular</t>
+    <t>jaipur</t>
+  </si>
+  <si>
+    <t>banglore</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>gurgaon</t>
+  </si>
+  <si>
+    <t>noida</t>
   </si>
 </sst>
 </file>
@@ -403,34 +403,34 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">

--- a/src/temp/temp.xlsx
+++ b/src/temp/temp.xlsx
@@ -1,54 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivsharma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivektak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190F3C3D-5259-4301-9764-31D784A59845}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C04240-A243-48F1-BBA8-62EEC7007D9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{841ACD11-FF34-4FAB-AEC7-7C58DA083F7A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ashish</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>majnu</t>
+  </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>jaipur</t>
-  </si>
-  <si>
-    <t>banglore</t>
-  </si>
-  <si>
-    <t>delhi</t>
-  </si>
-  <si>
-    <t>gurgaon</t>
-  </si>
-  <si>
-    <t>noida</t>
   </si>
 </sst>
 </file>
@@ -120,7 +108,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -132,7 +120,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -179,23 +167,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -231,23 +202,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,43 +353,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17AE2EF-6D95-4A56-AFA9-91B943464C7F}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/temp/temp.xlsx
+++ b/src/temp/temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivektak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C04240-A243-48F1-BBA8-62EEC7007D9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754E31B-5C11-4034-B595-CBE42E97FCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ashish</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>jai</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>nagar</t>
+  </si>
+  <si>
+    <t>kuldeep</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>bhai</t>
   </si>
 </sst>
 </file>
@@ -354,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -382,6 +400,36 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/temp/temp.xlsx
+++ b/src/temp/temp.xlsx
@@ -1,60 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivektak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivsharma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754E31B-5C11-4034-B595-CBE42E97FCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D1E55-F806-49E6-82B5-C20E6184834B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{188AE65F-9192-42D7-A06D-3B775BB6CCDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ashish</t>
-  </si>
-  <si>
-    <t>vivek</t>
-  </si>
-  <si>
-    <t>majnu</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>jai</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>nagar</t>
-  </si>
-  <si>
-    <t>kuldeep</t>
-  </si>
-  <si>
-    <t>tak</t>
-  </si>
-  <si>
-    <t>bhai</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>jobType</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>mandatorySkills</t>
+  </si>
+  <si>
+    <t>goodToHaveSkills</t>
+  </si>
+  <si>
+    <t>noOfPositions</t>
+  </si>
+  <si>
+    <t>experienceRequired</t>
+  </si>
+  <si>
+    <t>python developer</t>
+  </si>
+  <si>
+    <t>python developer description</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>gurgaon</t>
+  </si>
+  <si>
+    <t>python, django, html, css</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>3-5 yrs</t>
+  </si>
+  <si>
+    <t>javascript developer description</t>
+  </si>
+  <si>
+    <t>Javascript developer</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>jaipur</t>
+  </si>
+  <si>
+    <t>react, javascript</t>
+  </si>
+  <si>
+    <t>html, css</t>
   </si>
 </sst>
 </file>
@@ -126,7 +171,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -138,7 +183,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -185,6 +230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -220,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,66 +450,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF72C6-1045-4AAE-8EE4-79046E99B7FA}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/temp/temp.xlsx
+++ b/src/temp/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivsharma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35619FE1-5062-4523-A1BF-EB85C7C7BCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE457B3-F1DA-44CF-9A8A-69B0DA6FE84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,27 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Python</t>
+    <t>delhi</t>
   </si>
   <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>React Js</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>angular</t>
+    <t>jaipur J</t>
   </si>
 </sst>
 </file>
@@ -415,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,29 +421,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/temp/temp.xlsx
+++ b/src/temp/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivsharma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE457B3-F1DA-44CF-9A8A-69B0DA6FE84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBD663C-4B65-4067-A2F6-4C7B0386AD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>jaipur J</t>
+  </si>
+  <si>
+    <t>Gurgain</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,9 +424,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
